--- a/outputTest.xlsx
+++ b/outputTest.xlsx
@@ -1,44 +1,405 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonfadelli/Desktop/js/kdealer_node_server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EE801-C49E-D14B-8FFA-0274795E537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Data'!A1:J3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Data!A1:J31</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="123">
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>piOs</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>KNDPXCAGXP7081310</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SPORTAGE</t>
+  </si>
+  <si>
+    <t>HYBRID SX-PRESTIGE AWD AUTO</t>
+  </si>
+  <si>
+    <t>BB2: BLUE(BB2)</t>
+  </si>
+  <si>
+    <t>WK: BLACK(WK)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>CF EH STD</t>
+  </si>
+  <si>
+    <t>$ 37,427.00</t>
+  </si>
+  <si>
+    <t>$ 38,240.00</t>
+  </si>
+  <si>
+    <t>KNDPXCAG7P7078722</t>
+  </si>
+  <si>
+    <t>MGG: MATTE GRAY(MGG)</t>
+  </si>
+  <si>
+    <t>CB CF EH STD</t>
+  </si>
+  <si>
+    <t>$ 38,661.00</t>
+  </si>
+  <si>
+    <t>$ 39,195.00</t>
+  </si>
+  <si>
+    <t>KNDPXCAG0P7078562</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>CB CF EH RLS</t>
+  </si>
+  <si>
+    <t>KNDPUCAG2P7085764</t>
+  </si>
+  <si>
+    <t>HYBRID LX AWD AUTO</t>
+  </si>
+  <si>
+    <t>FSB: BLACK(FSB)</t>
+  </si>
+  <si>
+    <t>CF CN2 STD</t>
+  </si>
+  <si>
+    <t>$ 30,511.00</t>
+  </si>
+  <si>
+    <t>$ 30,845.00</t>
+  </si>
+  <si>
+    <t>KNDRH4LGXP5175465</t>
+  </si>
+  <si>
+    <t>SORENTO</t>
+  </si>
+  <si>
+    <t>HYBRID EX FWD AUTO</t>
+  </si>
+  <si>
+    <t>ABP: BLACK(ABP)</t>
+  </si>
+  <si>
+    <t>CF CO CTS MUG SS STD WL</t>
+  </si>
+  <si>
+    <t>$ 38,638.00</t>
+  </si>
+  <si>
+    <t>$ 39,425.00</t>
+  </si>
+  <si>
+    <t>KNDRKDLG1P5177333</t>
+  </si>
+  <si>
+    <t>GYT: GRAY(GYT)</t>
+  </si>
+  <si>
+    <t>CF STD</t>
+  </si>
+  <si>
+    <t>$ 43,358.00</t>
+  </si>
+  <si>
+    <t>$ 44,040.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L18P5041966</t>
+  </si>
+  <si>
+    <t>NIRO</t>
+  </si>
+  <si>
+    <t>EV WIND</t>
+  </si>
+  <si>
+    <t>SWP: WHITE(SWP)</t>
+  </si>
+  <si>
+    <t>CCV: DK GRAY(CCV)</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>CF LBV</t>
+  </si>
+  <si>
+    <t>$ 41,052.00</t>
+  </si>
+  <si>
+    <t>$ 41,505.00</t>
+  </si>
+  <si>
+    <t>KNDCT3L16P5042373</t>
+  </si>
+  <si>
+    <t>EV WAVE</t>
+  </si>
+  <si>
+    <t>DRG: ORANGE(DRG)</t>
+  </si>
+  <si>
+    <t>CF CTA DKC LBV</t>
+  </si>
+  <si>
+    <t>$ 45,286.00</t>
+  </si>
+  <si>
+    <t>$ 46,225.00</t>
+  </si>
+  <si>
+    <t>KNDCT3L11P5042197</t>
+  </si>
+  <si>
+    <t>M4B: BLUE(M4B)</t>
+  </si>
+  <si>
+    <t>EWR: LT GRAY(EWR)</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>CF CTA DKC GCV LBV</t>
+  </si>
+  <si>
+    <t>KNDCR3L17P5046995</t>
+  </si>
+  <si>
+    <t>$ 40,685.00</t>
+  </si>
+  <si>
+    <t>$ 41,110.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L19P5046996</t>
+  </si>
+  <si>
+    <t>KNDCR3L11P5046989</t>
+  </si>
+  <si>
+    <t>CF CTA LBV</t>
+  </si>
+  <si>
+    <t>$ 40,781.00</t>
+  </si>
+  <si>
+    <t>$ 41,225.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L15P5041939</t>
+  </si>
+  <si>
+    <t>CGE: GREEN(CGE)</t>
+  </si>
+  <si>
+    <t>CF CN LBV</t>
+  </si>
+  <si>
+    <t>$ 40,731.00</t>
+  </si>
+  <si>
+    <t>$ 41,165.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L11P5041971</t>
+  </si>
+  <si>
+    <t>KNDCR3L13P5041938</t>
+  </si>
+  <si>
+    <t>KNDCR3L15P5041942</t>
+  </si>
+  <si>
+    <t>KNDCR3L10P5045493</t>
+  </si>
+  <si>
+    <t>KNDCR3L16P5039424</t>
+  </si>
+  <si>
+    <t>KNDCR3L13P5043883</t>
+  </si>
+  <si>
+    <t>CF GCV LBV WL</t>
+  </si>
+  <si>
+    <t>$ 41,106.00</t>
+  </si>
+  <si>
+    <t>$ 41,570.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L14P5043942</t>
+  </si>
+  <si>
+    <t>CF GCV LBV</t>
+  </si>
+  <si>
+    <t>KNDCT3L1XP5039234</t>
+  </si>
+  <si>
+    <t>$ 45,653.00</t>
+  </si>
+  <si>
+    <t>$ 46,620.00</t>
+  </si>
+  <si>
+    <t>KNDCT3L10P5039212</t>
+  </si>
+  <si>
+    <t>DKC LBV</t>
+  </si>
+  <si>
+    <t>$ 45,412.00</t>
+  </si>
+  <si>
+    <t>$ 46,330.00</t>
+  </si>
+  <si>
+    <t>KNDCT3L12P5059297</t>
+  </si>
+  <si>
+    <t>CF CN CTA DKC LBV</t>
+  </si>
+  <si>
+    <t>$ 45,332.00</t>
+  </si>
+  <si>
+    <t>$ 46,280.00</t>
+  </si>
+  <si>
+    <t>KNDCR3L17P5061898</t>
+  </si>
+  <si>
+    <t>AGT: GRAY(AGT)</t>
+  </si>
+  <si>
+    <t>KNDCR3L12P5061985</t>
+  </si>
+  <si>
+    <t>KNDCR3L1XP5061961</t>
+  </si>
+  <si>
+    <t>KLG: GRAY(KLG)</t>
+  </si>
+  <si>
+    <t>KNDCS3LF7P5065580</t>
+  </si>
+  <si>
+    <t>PHEV EX</t>
+  </si>
+  <si>
+    <t>CA CF IL MUG STD</t>
+  </si>
+  <si>
+    <t>$ 35,277.00</t>
+  </si>
+  <si>
+    <t>$ 35,725.00</t>
+  </si>
+  <si>
+    <t>KNDCS3LF7P5067314</t>
+  </si>
+  <si>
+    <t>$ 34,969.00</t>
+  </si>
+  <si>
+    <t>$ 35,340.00</t>
+  </si>
+  <si>
+    <t>KNDCS3LF0P5093821</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>CF PEW</t>
+  </si>
+  <si>
+    <t>$ 35,918.00</t>
+  </si>
+  <si>
+    <t>$ 36,335.00</t>
+  </si>
+  <si>
+    <t>KNDCS3LF8P5106198</t>
+  </si>
+  <si>
+    <t>CF CN CT STD WL</t>
+  </si>
+  <si>
+    <t>$ 35,167.00</t>
+  </si>
+  <si>
+    <t>$ 35,575.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,13 +429,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,112 +768,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:J31" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE19E76-976C-F349-93AC-D42EAEEEAFAD}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>VIN</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Year</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Model</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Trim</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Ext</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Int</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Acc</v>
-      </c>
-      <c r="H1" t="str">
-        <v>piOs</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Invoice</v>
-      </c>
-      <c r="J1" t="str">
-        <v>MSRP</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>5XYK6CAF1PG124634</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2023</v>
-      </c>
-      <c r="C2" t="str">
-        <v>SPORTAGE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>X-LINE AWD AUTO</v>
-      </c>
-      <c r="E2" t="str">
-        <v>KDG: GRAY(KDG)</v>
-      </c>
-      <c r="F2" t="str">
-        <v>WK: BLACK(WK)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>015</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CFX CN2 CO CT PR4</v>
-      </c>
-      <c r="I2" t="str">
-        <v>$ 34,003.00</v>
-      </c>
-      <c r="J2" t="str">
-        <v>$ 34,805.00</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>5XYK4CAF3PG119537</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2023</v>
-      </c>
-      <c r="C3" t="str">
-        <v>SPORTAGE</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SX AWD AUTO</v>
-      </c>
-      <c r="E3" t="str">
-        <v>GWP: WHITE(GWP)</v>
-      </c>
-      <c r="F3" t="str">
-        <v>WK: BLACK(WK)</v>
-      </c>
-      <c r="G3" t="str">
-        <v>010</v>
-      </c>
-      <c r="H3" t="str">
-        <v>CA CF CN1 STD</v>
-      </c>
-      <c r="I3" t="str">
-        <v>$ 34,539.00</v>
-      </c>
-      <c r="J3" t="str">
-        <v>$ 35,635.00</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
-  </ignoredErrors>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outputTest.xlsx
+++ b/outputTest.xlsx
@@ -1,47 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\projects\kdealer_node_server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D18EA-228A-44A3-9F49-0E3251C088D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Data'!A1:J3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Data!A1:J3</definedName>
   </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>piOs</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SPORTAGE</t>
+  </si>
+  <si>
+    <t>X-LINE AWD AUTO</t>
+  </si>
+  <si>
+    <t>KDG: GRAY(KDG)</t>
+  </si>
+  <si>
+    <t>WK: BLACK(WK)</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>CFX CN2 CO CT PR4</t>
+  </si>
+  <si>
+    <t>$ 34,003.00</t>
+  </si>
+  <si>
+    <t>$ 34,805.00</t>
+  </si>
+  <si>
+    <t>SX AWD AUTO</t>
+  </si>
+  <si>
+    <t>GWP: WHITE(GWP)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>CA CF CN1 STD</t>
+  </si>
+  <si>
+    <t>$ 34,539.00</t>
+  </si>
+  <si>
+    <t>$ 35,635.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,17 +151,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,112 +497,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>VIN</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Year</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Model</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Trim</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Ext</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Int</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Acc</v>
-      </c>
-      <c r="H1" t="str">
-        <v>piOs</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Invoice</v>
-      </c>
-      <c r="J1" t="str">
-        <v>MSRP</v>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>HYPERLINK("http://localhost:3000/getMonroney/5XYK6CAF1PG124634", "5XYK6CAF1PG124634")</f>
         <v>5XYK6CAF1PG124634</v>
       </c>
-      <c r="B2" t="str">
-        <v>2023</v>
-      </c>
-      <c r="C2" t="str">
-        <v>SPORTAGE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>X-LINE AWD AUTO</v>
-      </c>
-      <c r="E2" t="str">
-        <v>KDG: GRAY(KDG)</v>
-      </c>
-      <c r="F2" t="str">
-        <v>WK: BLACK(WK)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>015</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CFX CN2 CO CT PR4</v>
-      </c>
-      <c r="I2" t="str">
-        <v>$ 34,003.00</v>
-      </c>
-      <c r="J2" t="str">
-        <v>$ 34,805.00</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>HYPERLINK("http://localhost:3000/getMonroney/5XYK4CAF3PG119537", "5XYK4CAF3PG119537")</f>
         <v>5XYK4CAF3PG119537</v>
       </c>
-      <c r="B3" t="str">
-        <v>2023</v>
-      </c>
-      <c r="C3" t="str">
-        <v>SPORTAGE</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SX AWD AUTO</v>
-      </c>
-      <c r="E3" t="str">
-        <v>GWP: WHITE(GWP)</v>
-      </c>
-      <c r="F3" t="str">
-        <v>WK: BLACK(WK)</v>
-      </c>
-      <c r="G3" t="str">
-        <v>010</v>
-      </c>
-      <c r="H3" t="str">
-        <v>CA CF CN1 STD</v>
-      </c>
-      <c r="I3" t="str">
-        <v>$ 34,539.00</v>
-      </c>
-      <c r="J3" t="str">
-        <v>$ 35,635.00</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J3"/>
+  <autoFilter ref="A1:J3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError sqref="A1:J1 B3:J3 B2:J2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>